--- a/ql-async/config_sensor.xlsx
+++ b/ql-async/config_sensor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\notze\Documents\Code\Python\DES-QL\Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/computation/desql/ql-async/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34571544-D656-476E-A956-3BB9E02F1C7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9696E051-2ABB-914F-8BC9-EA2A8A107FF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
+    <workbookView xWindow="1160" yWindow="460" windowWidth="27380" windowHeight="18080" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
   </bookViews>
   <sheets>
     <sheet name="smt" sheetId="1" r:id="rId1"/>
@@ -354,25 +354,25 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -400,11 +400,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -420,7 +420,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -720,15 +720,15 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="14.3828125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>98</v>
       </c>
@@ -742,7 +742,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -756,7 +756,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -770,7 +770,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -784,7 +784,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -798,7 +798,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -812,7 +812,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -826,7 +826,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -840,7 +840,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -854,7 +854,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -868,7 +868,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -882,7 +882,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -896,7 +896,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -910,7 +910,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -924,7 +924,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -938,7 +938,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -952,7 +952,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -966,7 +966,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -980,7 +980,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -994,7 +994,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>61</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>63</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>64</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1666,115 +1666,115 @@
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.6">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.6">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.6">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.6">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.6">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.6">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.6">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.6">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.6">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.6">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.6">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.6">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.6">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.6">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.6">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.6">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.6">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.6">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.6">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.6">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.6">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.6">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.6">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.6">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.6">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.6">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.6">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.6">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.6">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.6">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.6">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.6">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D112" s="1"/>
     </row>
   </sheetData>
@@ -1798,9 +1798,9 @@
       <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>99</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
